--- a/键位指南.xlsx
+++ b/键位指南.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LilacIssue\Desktop\DCS\mobile_dcs_ctr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{993418B8-0351-4726-B750-0A2CCEE94160}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC589788-BED6-4F1C-8462-660AD93685CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="162">
   <si>
     <t>Xbox</t>
   </si>
@@ -75,9 +75,6 @@
     <t>E</t>
   </si>
   <si>
-    <t>叫预警机 Lwin+</t>
-  </si>
-  <si>
     <t>LB</t>
   </si>
   <si>
@@ -294,15 +291,9 @@
     <t>光电传感器/RWR模式切换</t>
   </si>
   <si>
-    <t>O(改成R)</t>
-  </si>
-  <si>
     <t>左发启动</t>
   </si>
   <si>
-    <t>HUD滤镜 Rshift+H</t>
-  </si>
-  <si>
     <t>右发启动</t>
   </si>
   <si>
@@ -315,9 +306,6 @@
     <t>Lshift+E</t>
   </si>
   <si>
-    <t>进入自动油门模式</t>
-  </si>
-  <si>
     <t>J</t>
   </si>
   <si>
@@ -363,9 +351,6 @@
     <t>Lalt+G</t>
   </si>
   <si>
-    <t>退出自动油门模式</t>
-  </si>
-  <si>
     <t>雷达/脉冲重复频率选择</t>
   </si>
   <si>
@@ -505,6 +490,27 @@
   </si>
   <si>
     <t>7空对地模式</t>
+  </si>
+  <si>
+    <t>叫预警机 Lwin+O (不一定有效)</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>自动油门模式(长按退出)</t>
+  </si>
+  <si>
+    <t>叫加油机</t>
+  </si>
+  <si>
+    <t>HUD滤镜</t>
+  </si>
+  <si>
+    <t>Rshift+H</t>
+  </si>
+  <si>
+    <t>自动油门模式</t>
   </si>
 </sst>
 </file>
@@ -657,7 +663,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -702,9 +708,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1025,7 +1028,7 @@
   <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.65"/>
@@ -1120,7 +1123,7 @@
     <row r="5" spans="1:11" x14ac:dyDescent="0.65">
       <c r="A5" s="1"/>
       <c r="B5" s="12" t="s">
-        <v>16</v>
+        <v>155</v>
       </c>
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
@@ -1133,585 +1136,583 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.65">
       <c r="A6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="E6" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="F6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="H6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.65">
       <c r="A7" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="C7" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="D7" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="10" t="s">
+      <c r="G7" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="I7" s="10" t="s">
         <v>27</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="I7" s="10" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.65">
       <c r="A8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="E8" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="F8" s="15" t="s">
         <v>33</v>
-      </c>
-      <c r="F8" s="15" t="s">
-        <v>34</v>
       </c>
       <c r="G8" s="15"/>
       <c r="H8" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="I8" s="14" t="s">
         <v>35</v>
-      </c>
-      <c r="I8" s="14" t="s">
-        <v>36</v>
       </c>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.65">
       <c r="A9" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="C9" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="10" t="s">
-        <v>39</v>
-      </c>
       <c r="D9" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="10" t="s">
         <v>38</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>39</v>
       </c>
       <c r="F9" s="15"/>
       <c r="G9" s="15"/>
       <c r="H9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I9" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="I9" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.65">
       <c r="A10" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="C10" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" s="13" t="s">
+      <c r="E10" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="E10" s="13" t="s">
-        <v>43</v>
-      </c>
       <c r="F10" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H10" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I10" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.65">
       <c r="A11" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="C11" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="C11" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="13" t="s">
+      <c r="E11" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="E11" s="13" t="s">
+      <c r="F11" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="I11" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="J11" t="s">
         <v>47</v>
       </c>
-      <c r="F11" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="G11" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="H11" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="I11" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>48</v>
-      </c>
-      <c r="K11" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.65">
       <c r="A12" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="C12" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="D12" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="E12" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="E12" s="13" t="s">
+      <c r="F12" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="F12" s="17" t="s">
+      <c r="G12" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="G12" s="18" t="s">
+      <c r="H12" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="I12" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="J12" t="s">
         <v>56</v>
       </c>
-      <c r="H12" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="I12" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
         <v>57</v>
-      </c>
-      <c r="K12" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.65">
       <c r="A13" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="C13" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="D13" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="E13" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="E13" s="13" t="s">
+      <c r="F13" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="F13" s="17" t="s">
+      <c r="G13" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="G13" s="18" t="s">
+      <c r="H13" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="I13" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="J13" t="s">
+        <v>56</v>
+      </c>
+      <c r="K13" t="s">
         <v>65</v>
       </c>
-      <c r="H13" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="I13" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="J13" t="s">
-        <v>57</v>
-      </c>
-      <c r="K13" t="s">
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.65">
+      <c r="A14" s="18" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.65">
-      <c r="A14" s="19" t="s">
+      <c r="B14" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="C14" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="D14" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="F14" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="G14" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="I14" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="E14" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="F14" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="G14" s="17" t="s">
+      <c r="J14" t="s">
         <v>71</v>
       </c>
-      <c r="H14" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="I14" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
         <v>72</v>
       </c>
-      <c r="K14" t="s">
-        <v>73</v>
-      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.65">
-      <c r="A15" s="19"/>
+      <c r="A15" s="18"/>
       <c r="B15" s="10"/>
       <c r="C15" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D15" s="10"/>
       <c r="E15" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16" t="s">
         <v>74</v>
-      </c>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17" t="s">
-        <v>75</v>
       </c>
       <c r="H15" s="10"/>
       <c r="I15" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.65">
-      <c r="A16" s="19"/>
+      <c r="A16" s="18"/>
       <c r="B16" s="10"/>
       <c r="C16" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D16" s="10"/>
       <c r="E16" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16" t="s">
         <v>77</v>
-      </c>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17" t="s">
-        <v>78</v>
       </c>
       <c r="H16" s="10"/>
       <c r="I16" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J16" t="s">
+        <v>78</v>
+      </c>
+      <c r="K16" t="s">
         <v>79</v>
       </c>
-      <c r="K16" t="s">
-        <v>80</v>
-      </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.65">
-      <c r="A17" s="19"/>
+      <c r="A17" s="18"/>
       <c r="B17" s="10"/>
       <c r="C17" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D17" s="10"/>
       <c r="E17" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16" t="s">
         <v>81</v>
-      </c>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17" t="s">
-        <v>82</v>
       </c>
       <c r="H17" s="10"/>
       <c r="I17" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J17" t="s">
+        <v>82</v>
+      </c>
+      <c r="K17" t="s">
         <v>83</v>
-      </c>
-      <c r="K17" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.65">
       <c r="A18" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B18" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="C18" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="D18" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="F18" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="G18" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="H18" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="I18" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="E18" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="F18" s="14" t="s">
+      <c r="J18" t="s">
+        <v>78</v>
+      </c>
+      <c r="K18" t="s">
         <v>88</v>
-      </c>
-      <c r="G18" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="H18" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="I18" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="J18" t="s">
-        <v>79</v>
-      </c>
-      <c r="K18" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.65">
       <c r="A19" s="1"/>
-      <c r="B19" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="20"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
       <c r="J19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K19" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.65">
       <c r="A20" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B20" t="s">
+        <v>91</v>
+      </c>
+      <c r="C20" t="s">
+        <v>92</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="E20" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="B20" t="s">
+      <c r="F20" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C20" t="s">
+      <c r="G20" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="D20" s="21" t="s">
+      <c r="H20" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="E20" s="21" t="s">
+      <c r="I20" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.65">
       <c r="A21" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B21" t="s">
+        <v>99</v>
+      </c>
+      <c r="C21" t="s">
+        <v>100</v>
+      </c>
+      <c r="D21" t="s">
+        <v>101</v>
+      </c>
+      <c r="E21" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="B21" t="s">
+      <c r="F21" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="C21" t="s">
+      <c r="G21" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="D21" t="s">
-        <v>105</v>
-      </c>
-      <c r="E21" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="F21" s="22" t="s">
-        <v>107</v>
-      </c>
-      <c r="G21" s="22" t="s">
-        <v>108</v>
-      </c>
-      <c r="H21" s="22" t="s">
-        <v>107</v>
-      </c>
-      <c r="I21" s="22" t="s">
-        <v>108</v>
+      <c r="H21" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="I21" s="21" t="s">
+        <v>104</v>
       </c>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.65">
       <c r="A22" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B22" t="s">
+        <v>106</v>
+      </c>
+      <c r="C22" t="s">
+        <v>107</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="E22" s="20"/>
+      <c r="F22" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="G22" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="B22" t="s">
+      <c r="H22" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="C22" t="s">
-        <v>111</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="E22" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="F22" s="23" t="s">
-        <v>113</v>
-      </c>
-      <c r="G22" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="H22" s="10" t="s">
-        <v>115</v>
-      </c>
       <c r="I22" s="10" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.65">
       <c r="A23" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B23" t="s">
+        <v>112</v>
+      </c>
+      <c r="C23" t="s">
+        <v>113</v>
+      </c>
+      <c r="D23" t="s">
+        <v>114</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="F23" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="B23" t="s">
+      <c r="G23" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="C23" t="s">
+      <c r="H23" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="D23" t="s">
+      <c r="I23" s="14" t="s">
         <v>119</v>
-      </c>
-      <c r="E23" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="F23" s="22" t="s">
-        <v>121</v>
-      </c>
-      <c r="G23" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="H23" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="I23" s="14" t="s">
-        <v>124</v>
       </c>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.65">
       <c r="A24" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" t="s">
+        <v>123</v>
+      </c>
+      <c r="E24" t="s">
+        <v>124</v>
+      </c>
+      <c r="F24" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="G24" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="D24" t="s">
-        <v>128</v>
-      </c>
-      <c r="E24" t="s">
-        <v>129</v>
-      </c>
-      <c r="F24" s="24" t="s">
-        <v>130</v>
-      </c>
-      <c r="G24" s="24" t="s">
-        <v>131</v>
-      </c>
       <c r="H24" s="1" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.65">
       <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
+      <c r="B25" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>122</v>
+      </c>
       <c r="D25" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="F25" s="24"/>
-      <c r="G25" s="24"/>
+        <v>128</v>
+      </c>
+      <c r="F25" s="23"/>
+      <c r="G25" s="23"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
@@ -1719,76 +1720,80 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.65">
       <c r="A26" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F26" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="G26" s="23" t="s">
         <v>134</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="F26" s="24" t="s">
-        <v>138</v>
-      </c>
-      <c r="G26" s="24" t="s">
-        <v>139</v>
-      </c>
       <c r="H26" s="1" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.65">
       <c r="A27" s="14" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="F27" s="14" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="G27" s="14" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="H27" s="14" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="I27" s="14" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="J27" s="14"/>
       <c r="K27" s="1"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.65">
       <c r="A28" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="B28" s="25" t="s">
-        <v>145</v>
-      </c>
-      <c r="C28" s="26"/>
-      <c r="D28" s="26"/>
-      <c r="E28" s="25"/>
+        <v>139</v>
+      </c>
+      <c r="B28" s="24" t="s">
+        <v>140</v>
+      </c>
+      <c r="C28" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="D28" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="E28" s="24"/>
       <c r="F28" s="6"/>
       <c r="G28" s="7"/>
       <c r="H28" s="6"/>
@@ -1798,10 +1803,10 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.65">
       <c r="A29" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="B29" s="25" t="s">
-        <v>147</v>
+        <v>141</v>
+      </c>
+      <c r="B29" s="24" t="s">
+        <v>142</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
@@ -1815,10 +1820,10 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.65">
       <c r="A30" s="1" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -1832,17 +1837,17 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.65">
       <c r="A31" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="B31" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="D31" s="27" t="s">
-        <v>152</v>
+        <v>145</v>
+      </c>
+      <c r="B31" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="D31" s="26" t="s">
+        <v>147</v>
       </c>
       <c r="E31" s="1"/>
-      <c r="F31" s="28" t="s">
-        <v>153</v>
+      <c r="F31" s="27" t="s">
+        <v>161</v>
       </c>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
@@ -1851,40 +1856,30 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.65">
       <c r="A32" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B32" s="28" t="s">
+        <v>150</v>
+      </c>
+      <c r="C32" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="E32" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="G32" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="H32" t="s">
+        <v>153</v>
+      </c>
+      <c r="I32" s="27" t="s">
         <v>154</v>
-      </c>
-      <c r="B32" s="29" t="s">
-        <v>155</v>
-      </c>
-      <c r="C32" s="28" t="s">
-        <v>156</v>
-      </c>
-      <c r="E32" s="28" t="s">
-        <v>157</v>
-      </c>
-      <c r="G32" s="28" t="s">
-        <v>158</v>
-      </c>
-      <c r="I32" s="28" t="s">
-        <v>159</v>
       </c>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="B3:I3"/>
-    <mergeCell ref="B5:I5"/>
-    <mergeCell ref="F8:G9"/>
-    <mergeCell ref="B19:I19"/>
-    <mergeCell ref="B30:I30"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="B2:I2"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/键位指南.xlsx
+++ b/键位指南.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LilacIssue\Desktop\DCS\mobile_dcs_ctr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC589788-BED6-4F1C-8462-660AD93685CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E13274B-F897-4C96-9881-D4ACA5D2047C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="170">
   <si>
     <t>Xbox</t>
   </si>
@@ -183,12 +183,6 @@
     <t>=</t>
   </si>
   <si>
-    <t>左发启动/杆位指示器</t>
-  </si>
-  <si>
-    <t>Rshift+home/Rctrl+enter</t>
-  </si>
-  <si>
     <t>显示范围/雷达扫描范围+</t>
   </si>
   <si>
@@ -210,12 +204,6 @@
     <t>-</t>
   </si>
   <si>
-    <t>右发启动/解锁机轮转向</t>
-  </si>
-  <si>
-    <t>Rctrl+home/Lalt+Q</t>
-  </si>
-  <si>
     <t>显示范围/雷达扫描范围_</t>
   </si>
   <si>
@@ -264,9 +252,6 @@
     <t>左</t>
   </si>
   <si>
-    <t>杆位指示</t>
-  </si>
-  <si>
     <t>Rctrl+/</t>
   </si>
   <si>
@@ -291,12 +276,6 @@
     <t>光电传感器/RWR模式切换</t>
   </si>
   <si>
-    <t>左发启动</t>
-  </si>
-  <si>
-    <t>右发启动</t>
-  </si>
-  <si>
     <t>X</t>
   </si>
   <si>
@@ -459,9 +438,6 @@
     <t>截图键</t>
   </si>
   <si>
-    <t>截图（不支持自定义）</t>
-  </si>
-  <si>
     <t>NAV</t>
   </si>
   <si>
@@ -492,18 +468,12 @@
     <t>7空对地模式</t>
   </si>
   <si>
-    <t>叫预警机 Lwin+O (不一定有效)</t>
-  </si>
-  <si>
     <t>O</t>
   </si>
   <si>
     <t>自动油门模式(长按退出)</t>
   </si>
   <si>
-    <t>叫加油机</t>
-  </si>
-  <si>
     <t>HUD滤镜</t>
   </si>
   <si>
@@ -511,6 +481,60 @@
   </si>
   <si>
     <t>自动油门模式</t>
+  </si>
+  <si>
+    <t>左摇杆长按</t>
+  </si>
+  <si>
+    <t>（待定） HUD滤镜 Rshift+H</t>
+  </si>
+  <si>
+    <t>航行灯/双发启动</t>
+  </si>
+  <si>
+    <t>Rctrl+L/Rshift+home</t>
+  </si>
+  <si>
+    <t>起落架灯/解锁机轮转向</t>
+  </si>
+  <si>
+    <t>Ralt+L/Lalt+Q</t>
+  </si>
+  <si>
+    <t>方向舵配平</t>
+  </si>
+  <si>
+    <t>Rctrl+Z Rctrl+X</t>
+  </si>
+  <si>
+    <t>双发起动</t>
+  </si>
+  <si>
+    <t>航行灯</t>
+  </si>
+  <si>
+    <t>右摇杆长按</t>
+  </si>
+  <si>
+    <t>杆位指示器</t>
+  </si>
+  <si>
+    <t>Rctrl+enter</t>
+  </si>
+  <si>
+    <t>MiG29抛副油箱(Su33空中加油指示灯) Lalt+R</t>
+  </si>
+  <si>
+    <t>起落架灯</t>
+  </si>
+  <si>
+    <t>可随意绑键(如叫加油机)</t>
+  </si>
+  <si>
+    <t>Ralt+Rshift+Z</t>
+  </si>
+  <si>
+    <t>（不支持自定义）</t>
   </si>
 </sst>
 </file>
@@ -1025,10 +1049,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:K33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="O27" sqref="O27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.65"/>
@@ -1121,9 +1145,11 @@
       <c r="K4" s="11"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.65">
-      <c r="A5" s="1"/>
+      <c r="A5" s="1" t="s">
+        <v>152</v>
+      </c>
       <c r="B5" s="12" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
@@ -1309,12 +1335,6 @@
       <c r="I11" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="J11" t="s">
-        <v>47</v>
-      </c>
-      <c r="K11" t="s">
-        <v>48</v>
-      </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.65">
       <c r="A12" s="13" t="s">
@@ -1327,16 +1347,16 @@
         <v>51</v>
       </c>
       <c r="D12" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="F12" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="E12" s="13" t="s">
+      <c r="G12" s="17" t="s">
         <v>53</v>
-      </c>
-      <c r="F12" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="G12" s="17" t="s">
-        <v>55</v>
       </c>
       <c r="H12" s="13" t="s">
         <v>50</v>
@@ -1345,471 +1365,487 @@
         <v>51</v>
       </c>
       <c r="J12" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="K12" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.65">
       <c r="A13" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="D13" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="F13" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="G13" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="H13" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="I13" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="J13" t="s">
+        <v>54</v>
+      </c>
+      <c r="K13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.65">
+      <c r="A14" s="18"/>
+      <c r="B14" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" t="s">
+        <v>54</v>
+      </c>
+      <c r="K14" t="s">
         <v>61</v>
       </c>
-      <c r="E13" s="13" t="s">
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.65">
+      <c r="A15" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="F13" s="16" t="s">
+      <c r="B15" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="G13" s="17" t="s">
+      <c r="C15" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="H13" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="I13" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="J13" t="s">
-        <v>56</v>
-      </c>
-      <c r="K13" t="s">
+      <c r="D15" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F15" s="16" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.65">
-      <c r="A14" s="18" t="s">
+      <c r="G15" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="H15" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="I15" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="J15" t="s">
         <v>67</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="K15" t="s">
         <v>68</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="F14" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="G14" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="H14" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="I14" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="J14" t="s">
-        <v>71</v>
-      </c>
-      <c r="K14" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.65">
-      <c r="A15" s="18"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="J15" t="s">
-        <v>71</v>
-      </c>
-      <c r="K15" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.65">
       <c r="A16" s="18"/>
       <c r="B16" s="10"/>
       <c r="C16" s="10" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="D16" s="10"/>
       <c r="E16" s="10" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="F16" s="16"/>
       <c r="G16" s="16" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="H16" s="10"/>
       <c r="I16" s="10" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="J16" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="K16" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.65">
       <c r="A17" s="18"/>
       <c r="B17" s="10"/>
       <c r="C17" s="10" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="D17" s="10"/>
       <c r="E17" s="10" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="F17" s="16"/>
       <c r="G17" s="16" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="H17" s="10"/>
       <c r="I17" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="J17" t="s">
+        <v>74</v>
+      </c>
+      <c r="K17" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.65">
+      <c r="A18" s="1"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="J18" t="s">
+        <v>77</v>
+      </c>
+      <c r="K18" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.65">
+      <c r="A19" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B19" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="J17" t="s">
+      <c r="C19" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="E19" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="F19" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="K17" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.65">
-      <c r="A18" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="F18" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="G18" s="14" t="s">
-        <v>156</v>
-      </c>
-      <c r="H18" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="I18" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="J18" t="s">
-        <v>78</v>
-      </c>
-      <c r="K18" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.65">
-      <c r="A19" s="1"/>
-      <c r="B19" s="19"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
+      <c r="G19" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="H19" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="I19" s="19" t="s">
+        <v>81</v>
+      </c>
       <c r="J19" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="K19" t="s">
-        <v>89</v>
+        <v>161</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.65">
       <c r="A20" s="1" t="s">
-        <v>90</v>
+        <v>162</v>
       </c>
       <c r="B20" t="s">
-        <v>91</v>
+        <v>163</v>
       </c>
       <c r="C20" t="s">
-        <v>92</v>
+        <v>164</v>
       </c>
       <c r="D20" s="20" t="s">
-        <v>157</v>
-      </c>
-      <c r="E20" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>97</v>
+        <v>165</v>
+      </c>
+      <c r="E20" s="20"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" t="s">
+        <v>77</v>
+      </c>
+      <c r="K20" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.65">
       <c r="A21" s="1" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="B21" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="C21" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="D21" t="s">
-        <v>101</v>
+        <v>148</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="F21" s="21" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="G21" s="21" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="H21" s="21" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="I21" s="21" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.65">
       <c r="A22" s="1" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="B22" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="C22" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="E22" s="20"/>
+        <v>94</v>
+      </c>
+      <c r="E22" s="20" t="s">
+        <v>95</v>
+      </c>
       <c r="F22" s="22" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="G22" s="22" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="H22" s="10" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="I22" s="10" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.65">
       <c r="A23" s="1" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="B23" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="C23" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="D23" t="s">
-        <v>114</v>
+        <v>167</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>115</v>
+        <v>168</v>
       </c>
       <c r="F23" s="21" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="G23" s="21" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="H23" s="14" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="I23" s="14" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.65">
       <c r="A24" s="1" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="C24" s="1"/>
+        <v>105</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>106</v>
+      </c>
       <c r="D24" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="E24" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="F24" s="23" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="G24" s="23" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.65">
-      <c r="A25" s="1"/>
+      <c r="A25" s="1" t="s">
+        <v>113</v>
+      </c>
       <c r="B25" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>122</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="C25" s="1"/>
       <c r="D25" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="F25" s="23"/>
-      <c r="G25" s="23"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
+        <v>117</v>
+      </c>
+      <c r="F25" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="G25" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>119</v>
+      </c>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.65">
-      <c r="A26" s="1" t="s">
-        <v>38</v>
-      </c>
+      <c r="A26" s="1"/>
       <c r="B26" s="1" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="F26" s="23" t="s">
-        <v>133</v>
-      </c>
-      <c r="G26" s="23" t="s">
-        <v>134</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>134</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="F26" s="23"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.65">
       <c r="A27" s="14" t="s">
-        <v>135</v>
+        <v>38</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="F27" s="14" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="G27" s="14" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="H27" s="14" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="I27" s="14" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="J27" s="14"/>
       <c r="K27" s="1"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.65">
       <c r="A28" s="3" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="B28" s="24" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="C28" s="25" t="s">
-        <v>159</v>
+        <v>113</v>
       </c>
       <c r="D28" s="25" t="s">
-        <v>160</v>
-      </c>
-      <c r="E28" s="24"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="7"/>
+        <v>129</v>
+      </c>
+      <c r="E28" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="I28" s="7" t="s">
+        <v>131</v>
+      </c>
       <c r="J28" s="6"/>
       <c r="K28" s="7"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.65">
       <c r="A29" s="3" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="B29" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
+        <v>133</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>150</v>
+      </c>
       <c r="E29" s="7"/>
       <c r="F29" s="6"/>
       <c r="G29" s="7"/>
@@ -1820,10 +1856,10 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.65">
       <c r="A30" s="1" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -1837,18 +1873,14 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.65">
       <c r="A31" s="1" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="B31" s="26" t="s">
-        <v>146</v>
-      </c>
-      <c r="D31" s="26" t="s">
-        <v>147</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="D31" s="26"/>
       <c r="E31" s="1"/>
-      <c r="F31" s="27" t="s">
-        <v>161</v>
-      </c>
+      <c r="F31" s="27"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
@@ -1856,28 +1888,46 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.65">
       <c r="A32" s="1" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="B32" s="28" t="s">
-        <v>150</v>
-      </c>
-      <c r="C32" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="C32" s="27"/>
+      <c r="D32" t="s">
+        <v>139</v>
+      </c>
+      <c r="E32" s="27"/>
+      <c r="F32" t="s">
         <v>151</v>
       </c>
-      <c r="E32" s="27" t="s">
-        <v>152</v>
-      </c>
-      <c r="G32" s="27" t="s">
-        <v>148</v>
-      </c>
-      <c r="H32" t="s">
-        <v>153</v>
-      </c>
-      <c r="I32" s="27" t="s">
-        <v>154</v>
-      </c>
+      <c r="G32" s="27"/>
+      <c r="I32" s="27"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.65">
+      <c r="A33" t="s">
+        <v>141</v>
+      </c>
+      <c r="B33" t="s">
+        <v>142</v>
+      </c>
+      <c r="C33" t="s">
+        <v>143</v>
+      </c>
+      <c r="E33" t="s">
+        <v>144</v>
+      </c>
+      <c r="G33" t="s">
+        <v>140</v>
+      </c>
+      <c r="H33" t="s">
+        <v>145</v>
+      </c>
+      <c r="I33" t="s">
+        <v>146</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/键位指南.xlsx
+++ b/键位指南.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LilacIssue\Desktop\DCS\mobile_dcs_ctr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E13274B-F897-4C96-9881-D4ACA5D2047C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ED1C1EB-BC48-4F1E-AE20-C5E0B03A0BF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="167">
   <si>
     <t>Xbox</t>
   </si>
@@ -45,9 +45,6 @@
     <t>LT RT</t>
   </si>
   <si>
-    <t>右舵 左舵</t>
-  </si>
-  <si>
     <t>左摇杆</t>
   </si>
   <si>
@@ -174,9 +171,6 @@
     <t>冷启流程</t>
   </si>
   <si>
-    <t>十字键左</t>
-  </si>
-  <si>
     <t>显示范围+</t>
   </si>
   <si>
@@ -195,9 +189,6 @@
     <t>座舱盖</t>
   </si>
   <si>
-    <t>十字键右</t>
-  </si>
-  <si>
     <t>显示范围-</t>
   </si>
   <si>
@@ -228,21 +219,12 @@
     <t>;</t>
   </si>
   <si>
-    <t>下</t>
-  </si>
-  <si>
-    <t>挂载界面</t>
-  </si>
-  <si>
     <t>Rctrl+;</t>
   </si>
   <si>
     <t>,</t>
   </si>
   <si>
-    <t>双发关断</t>
-  </si>
-  <si>
     <t>Rctrl+,</t>
   </si>
   <si>
@@ -435,27 +417,12 @@
     <t>切换作战子模式</t>
   </si>
   <si>
-    <t>截图键</t>
-  </si>
-  <si>
-    <t>NAV</t>
-  </si>
-  <si>
-    <t>导航模式</t>
-  </si>
-  <si>
     <t>特殊导航模式</t>
   </si>
   <si>
     <t>5头瞄模式</t>
   </si>
   <si>
-    <t>AA/AG</t>
-  </si>
-  <si>
-    <t>超视距模式</t>
-  </si>
-  <si>
     <t>4瞄准线模式</t>
   </si>
   <si>
@@ -474,21 +441,9 @@
     <t>自动油门模式(长按退出)</t>
   </si>
   <si>
-    <t>HUD滤镜</t>
-  </si>
-  <si>
-    <t>Rshift+H</t>
-  </si>
-  <si>
-    <t>自动油门模式</t>
-  </si>
-  <si>
     <t>左摇杆长按</t>
   </si>
   <si>
-    <t>（待定） HUD滤镜 Rshift+H</t>
-  </si>
-  <si>
     <t>航行灯/双发启动</t>
   </si>
   <si>
@@ -501,12 +456,6 @@
     <t>Ralt+L/Lalt+Q</t>
   </si>
   <si>
-    <t>方向舵配平</t>
-  </si>
-  <si>
-    <t>Rctrl+Z Rctrl+X</t>
-  </si>
-  <si>
     <t>双发起动</t>
   </si>
   <si>
@@ -522,19 +471,61 @@
     <t>Rctrl+enter</t>
   </si>
   <si>
-    <t>MiG29抛副油箱(Su33空中加油指示灯) Lalt+R</t>
-  </si>
-  <si>
     <t>起落架灯</t>
   </si>
   <si>
-    <t>可随意绑键(如叫加油机)</t>
-  </si>
-  <si>
-    <t>Ralt+Rshift+Z</t>
-  </si>
-  <si>
-    <t>（不支持自定义）</t>
+    <t>右舵 左舵 或 缩放视野</t>
+  </si>
+  <si>
+    <t>（自定义） Rshift+Rctrl+Z</t>
+  </si>
+  <si>
+    <t>十字键左/长按</t>
+  </si>
+  <si>
+    <t>显示范围+/方向舵向左配平</t>
+  </si>
+  <si>
+    <t>‘=’/Rctrl+Z</t>
+  </si>
+  <si>
+    <t>十字键右/长按</t>
+  </si>
+  <si>
+    <t>显示范围-/方向舵向右配平</t>
+  </si>
+  <si>
+    <t>‘-’/Rctrl+X</t>
+  </si>
+  <si>
+    <t>MiG29抛副油箱(Su33空中加油指示灯) Lalt+R [与AMD/NVDIA热键冲突]</t>
+  </si>
+  <si>
+    <t>YY</t>
+  </si>
+  <si>
+    <t>接收模式</t>
+  </si>
+  <si>
+    <t>Rshift+M</t>
+  </si>
+  <si>
+    <t>长按：HUD滤镜  Rshift+H</t>
+  </si>
+  <si>
+    <t>1导航模式</t>
+  </si>
+  <si>
+    <t>A特殊导航模式</t>
+  </si>
+  <si>
+    <t>X自动油门模式</t>
+  </si>
+  <si>
+    <t>长按：切换到5头瞄模式</t>
+  </si>
+  <si>
+    <t>2超视距模式</t>
   </si>
 </sst>
 </file>
@@ -687,7 +678,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -698,33 +689,18 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -732,9 +708,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -742,9 +715,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -768,6 +738,30 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1049,617 +1043,638 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K33"/>
+  <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O27" sqref="O27"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.65"/>
+  <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
+  <cols>
+    <col min="1" max="1" width="12.44921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.09765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.34765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.94921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.046875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.6484375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.8984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.19921875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.046875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2" t="s">
+      <c r="C1" s="22"/>
+      <c r="D1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2" t="s">
+      <c r="E1" s="22"/>
+      <c r="F1" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2" t="s">
+      <c r="G1" s="22"/>
+      <c r="H1" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.65">
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="5"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="7"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.65">
-      <c r="A3" s="3" t="s">
+      <c r="B3" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="5"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="7"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.65">
-      <c r="A4" s="1" t="s">
+      <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>11</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>12</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="G4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="H4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="7"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A5" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B5" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
+      <c r="K5" s="7"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="K4" s="11"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.65">
-      <c r="A5" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="K5" s="11"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.65">
-      <c r="A6" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="E6" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="F6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="H6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.65">
-      <c r="A7" s="14" t="s">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A7" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="C7" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="D7" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="10" t="s">
+      <c r="G7" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="I7" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="10" t="s">
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A8" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H7" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="I7" s="10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.65">
-      <c r="A8" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="E8" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="F8" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="F8" s="15" t="s">
+      <c r="G8" s="28"/>
+      <c r="H8" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="G8" s="15"/>
-      <c r="H8" s="14" t="s">
+      <c r="I8" s="9" t="s">
         <v>34</v>
-      </c>
-      <c r="I8" s="14" t="s">
-        <v>35</v>
       </c>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.65">
-      <c r="A9" s="14" t="s">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A9" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="C9" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E9" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
       <c r="H9" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
+      </c>
+      <c r="I9" s="1">
+        <v>11</v>
       </c>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.65">
-      <c r="A10" s="13" t="s">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A10" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="C10" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="13" t="s">
+      <c r="E10" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E10" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="F10" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="G10" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="H10" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="I10" s="13" t="s">
-        <v>32</v>
+      <c r="F10" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>31</v>
       </c>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.65">
-      <c r="A11" s="13" t="s">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A11" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="C11" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="13" t="s">
+      <c r="E11" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="E11" s="13" t="s">
+      <c r="F11" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A12" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="J12" t="s">
         <v>46</v>
       </c>
-      <c r="F11" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="G11" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="H11" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="I11" s="13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.65">
-      <c r="A12" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="D12" s="13" t="s">
+      <c r="K12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A13" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="E12" s="13" t="s">
+      <c r="B13" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="F12" s="16" t="s">
+      <c r="C13" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="J13" t="s">
         <v>52</v>
       </c>
-      <c r="G12" s="17" t="s">
+      <c r="K13" t="s">
         <v>53</v>
       </c>
-      <c r="H12" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="I12" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="J12" t="s">
-        <v>47</v>
-      </c>
-      <c r="K12" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.65">
-      <c r="A13" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="C13" s="13" t="s">
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A14" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="J14" t="s">
+        <v>52</v>
+      </c>
+      <c r="K14" t="s">
         <v>58</v>
       </c>
-      <c r="D13" s="13" t="s">
-        <v>156</v>
-      </c>
-      <c r="E13" s="13" t="s">
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A15" s="12"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="J15" t="s">
+        <v>68</v>
+      </c>
+      <c r="K15" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A16" s="12"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="J16" t="s">
+        <v>71</v>
+      </c>
+      <c r="K16" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A17" s="12"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="J17" t="s">
+        <v>68</v>
+      </c>
+      <c r="K17" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A18" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="J18" t="s">
+        <v>71</v>
+      </c>
+      <c r="K18" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A19" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B19" t="s">
+        <v>146</v>
+      </c>
+      <c r="C19" t="s">
+        <v>147</v>
+      </c>
+      <c r="D19" s="29" t="s">
         <v>157</v>
       </c>
-      <c r="F13" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="G13" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="H13" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="I13" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="J13" t="s">
-        <v>54</v>
-      </c>
-      <c r="K13" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.65">
-      <c r="A14" s="18"/>
-      <c r="B14" s="10" t="s">
+      <c r="E19" s="29"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="29"/>
+      <c r="J19" t="s">
         <v>158</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="K19" t="s">
         <v>159</v>
       </c>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" t="s">
-        <v>54</v>
-      </c>
-      <c r="K14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.65">
-      <c r="A15" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="F15" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="G15" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="H15" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="I15" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="J15" t="s">
-        <v>67</v>
-      </c>
-      <c r="K15" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.65">
-      <c r="A16" s="18"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="J16" t="s">
-        <v>67</v>
-      </c>
-      <c r="K16" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.65">
-      <c r="A17" s="18"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="J17" t="s">
-        <v>74</v>
-      </c>
-      <c r="K17" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.65">
-      <c r="A18" s="1"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="J18" t="s">
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A20" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="K18" t="s">
+      <c r="B20" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.65">
-      <c r="A19" s="1" t="s">
+      <c r="C20" t="s">
         <v>79</v>
       </c>
-      <c r="B19" s="19" t="s">
+      <c r="D20" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="E20" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="C19" s="19" t="s">
+      <c r="F20" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D19" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="E19" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="F19" s="19" t="s">
+      <c r="G20" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="G19" s="19" t="s">
-        <v>147</v>
-      </c>
-      <c r="H19" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="I19" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="J19" t="s">
-        <v>74</v>
-      </c>
-      <c r="K19" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.65">
-      <c r="A20" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="B20" t="s">
-        <v>163</v>
-      </c>
-      <c r="C20" t="s">
-        <v>164</v>
-      </c>
-      <c r="D20" s="20" t="s">
-        <v>165</v>
-      </c>
-      <c r="E20" s="20"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" t="s">
-        <v>77</v>
-      </c>
-      <c r="K20" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.65">
+      <c r="H20" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A21" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B21" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C21" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D21" t="s">
-        <v>148</v>
-      </c>
-      <c r="E21" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="F21" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="G21" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="H21" s="21" t="s">
+      <c r="E21" t="s">
         <v>89</v>
       </c>
-      <c r="I21" s="21" t="s">
+      <c r="F21" s="14" t="s">
         <v>90</v>
+      </c>
+      <c r="G21" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="H21" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="I21" s="14" t="s">
+        <v>91</v>
       </c>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A22" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B22" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C22" t="s">
-        <v>93</v>
-      </c>
-      <c r="D22" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="E22" s="20" t="s">
+      <c r="D22" t="s">
+        <v>159</v>
+      </c>
+      <c r="E22" t="s">
+        <v>160</v>
+      </c>
+      <c r="F22" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="F22" s="22" t="s">
+      <c r="G22" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="G22" s="22" t="s">
+      <c r="H22" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="H22" s="10" t="s">
+      <c r="I22" s="6" t="s">
         <v>96</v>
-      </c>
-      <c r="I22" s="10" t="s">
-        <v>97</v>
       </c>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A23" s="1" t="s">
         <v>98</v>
       </c>
@@ -1670,266 +1685,204 @@
         <v>100</v>
       </c>
       <c r="D23" t="s">
-        <v>167</v>
-      </c>
-      <c r="E23" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="F23" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="G23" s="21" t="s">
+      <c r="E23" t="s">
         <v>102</v>
       </c>
-      <c r="H23" s="14" t="s">
+      <c r="F23" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="I23" s="14" t="s">
-        <v>102</v>
+      <c r="G23" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="H23" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="I23" s="9" t="s">
+        <v>106</v>
       </c>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A24" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>106</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="C24" s="13"/>
       <c r="D24" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E24" t="s">
-        <v>108</v>
-      </c>
-      <c r="F24" s="23" t="s">
-        <v>109</v>
-      </c>
-      <c r="G24" s="23" t="s">
-        <v>110</v>
+        <v>111</v>
+      </c>
+      <c r="F24" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="G24" s="16" t="s">
+        <v>113</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.65">
-      <c r="A25" s="1" t="s">
-        <v>113</v>
-      </c>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A25" s="1"/>
       <c r="B25" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="C25" s="1"/>
+        <v>108</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>109</v>
+      </c>
       <c r="D25" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="F25" s="23" t="s">
-        <v>118</v>
-      </c>
-      <c r="G25" s="23" t="s">
-        <v>119</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>119</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.65">
-      <c r="A26" s="1"/>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A26" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="B26" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D26" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F26" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="G26" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="F26" s="23"/>
-      <c r="G26" s="23"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
+      <c r="H26" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>121</v>
+      </c>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.65">
-      <c r="A27" s="14" t="s">
-        <v>38</v>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A27" s="9" t="s">
+        <v>122</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C27" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="E27" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F27" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="G27" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="F27" s="14" t="s">
+      <c r="H27" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="I27" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="J27" s="9"/>
+      <c r="K27" s="1"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A28" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="G27" s="14" t="s">
+      <c r="B28" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="H27" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="I27" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="J27" s="14"/>
-      <c r="K27" s="1"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.65">
-      <c r="A28" s="3" t="s">
+      <c r="C28" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="D28" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="E28" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="J28" s="4"/>
+      <c r="K28" s="5"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A29" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="B28" s="24" t="s">
+      <c r="B29" s="17" t="s">
         <v>129</v>
       </c>
-      <c r="C28" s="25" t="s">
-        <v>113</v>
-      </c>
-      <c r="D28" s="25" t="s">
-        <v>129</v>
-      </c>
-      <c r="E28" s="24" t="s">
-        <v>113</v>
-      </c>
-      <c r="F28" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="G28" s="7" t="s">
+      <c r="C29" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="D29" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="E29" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="F29" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="G29" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="H28" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="I28" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="J28" s="6"/>
-      <c r="K28" s="7"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.65">
-      <c r="A29" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="B29" s="24" t="s">
-        <v>133</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="E29" s="7"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="6"/>
-      <c r="K29" s="7"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.65">
-      <c r="A30" s="1" t="s">
+      <c r="H29" s="20" t="s">
         <v>134</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="I29" s="20" t="s">
         <v>135</v>
       </c>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.65">
-      <c r="A31" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="B31" s="26" t="s">
-        <v>169</v>
-      </c>
-      <c r="D31" s="26"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="27"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.65">
-      <c r="A32" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="B32" s="28" t="s">
-        <v>138</v>
-      </c>
-      <c r="C32" s="27"/>
-      <c r="D32" t="s">
-        <v>139</v>
-      </c>
-      <c r="E32" s="27"/>
-      <c r="F32" t="s">
-        <v>151</v>
-      </c>
-      <c r="G32" s="27"/>
-      <c r="I32" s="27"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.65">
-      <c r="A33" t="s">
-        <v>141</v>
-      </c>
-      <c r="B33" t="s">
-        <v>142</v>
-      </c>
-      <c r="C33" t="s">
-        <v>143</v>
-      </c>
-      <c r="E33" t="s">
-        <v>144</v>
-      </c>
-      <c r="G33" t="s">
-        <v>140</v>
-      </c>
-      <c r="H33" t="s">
-        <v>145</v>
-      </c>
-      <c r="I33" t="s">
-        <v>146</v>
-      </c>
+      <c r="J29" s="4"/>
+      <c r="K29" s="5"/>
     </row>
   </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="B3:I3"/>
+    <mergeCell ref="F8:G9"/>
+    <mergeCell ref="D19:I19"/>
+    <mergeCell ref="B5:I5"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/键位指南.xlsx
+++ b/键位指南.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LilacIssue\Desktop\DCS\mobile_dcs_ctr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ED1C1EB-BC48-4F1E-AE20-C5E0B03A0BF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{777A2830-247E-4E7D-9240-EE0D65B327D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="167">
   <si>
     <t>Xbox</t>
   </si>
@@ -754,13 +754,13 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1046,7 +1046,7 @@
   <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="A2" sqref="A2:I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
@@ -1155,16 +1155,16 @@
       <c r="A5" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="29" t="s">
         <v>150</v>
       </c>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="27"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
       <c r="K5" s="7"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.5">
@@ -1243,10 +1243,10 @@
       <c r="E8" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="F8" s="28" t="s">
+      <c r="F8" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="G8" s="28"/>
+      <c r="G8" s="27"/>
       <c r="H8" s="9" t="s">
         <v>33</v>
       </c>
@@ -1272,13 +1272,13 @@
       <c r="E9" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
       <c r="H9" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="I9" s="1">
-        <v>11</v>
+      <c r="I9" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
@@ -1568,14 +1568,14 @@
       <c r="C19" t="s">
         <v>147</v>
       </c>
-      <c r="D19" s="29" t="s">
+      <c r="D19" s="28" t="s">
         <v>157</v>
       </c>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="29"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="28"/>
       <c r="J19" t="s">
         <v>158</v>
       </c>
